--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H2">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J2">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N2">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O2">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P2">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q2">
-        <v>3.937989109693333</v>
+        <v>31.45123721152</v>
       </c>
       <c r="R2">
-        <v>35.44190198724</v>
+        <v>283.06113490368</v>
       </c>
       <c r="S2">
-        <v>0.003352202360678181</v>
+        <v>0.01718308017258308</v>
       </c>
       <c r="T2">
-        <v>0.003352202360678182</v>
+        <v>0.01718308017258309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H3">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J3">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>93.234415</v>
       </c>
       <c r="O3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q3">
-        <v>10.93191126820055</v>
+        <v>65.76879946653332</v>
       </c>
       <c r="R3">
-        <v>98.38720141380499</v>
+        <v>591.9191951988</v>
       </c>
       <c r="S3">
-        <v>0.009305759294707667</v>
+        <v>0.03593214939328502</v>
       </c>
       <c r="T3">
-        <v>0.009305759294707668</v>
+        <v>0.03593214939328503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H4">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I4">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J4">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N4">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q4">
-        <v>3.103254738650556</v>
+        <v>38.30793240698667</v>
       </c>
       <c r="R4">
-        <v>27.929292647855</v>
+        <v>344.77139166288</v>
       </c>
       <c r="S4">
-        <v>0.002641637031215723</v>
+        <v>0.02092916947489879</v>
       </c>
       <c r="T4">
-        <v>0.002641637031215723</v>
+        <v>0.02092916947489881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3517556666666666</v>
+        <v>2.11624</v>
       </c>
       <c r="H5">
-        <v>1.055267</v>
+        <v>6.34872</v>
       </c>
       <c r="I5">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="J5">
-        <v>0.04271818225758384</v>
+        <v>0.1897594766532197</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N5">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O5">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P5">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q5">
-        <v>32.20989423917133</v>
+        <v>211.8003476900266</v>
       </c>
       <c r="R5">
-        <v>289.889048152542</v>
+        <v>1906.20312921024</v>
       </c>
       <c r="S5">
-        <v>0.02741858357098226</v>
+        <v>0.1157150776124528</v>
       </c>
       <c r="T5">
-        <v>0.02741858357098227</v>
+        <v>0.1157150776124528</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>20.610225</v>
       </c>
       <c r="I6">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J6">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N6">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O6">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P6">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q6">
-        <v>76.912138443</v>
+        <v>102.1020103986</v>
       </c>
       <c r="R6">
-        <v>692.209245987</v>
+        <v>918.9180935874</v>
       </c>
       <c r="S6">
-        <v>0.06547124557018126</v>
+        <v>0.05578244883220181</v>
       </c>
       <c r="T6">
-        <v>0.06547124557018127</v>
+        <v>0.05578244883220181</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>20.610225</v>
       </c>
       <c r="I7">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J7">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>93.234415</v>
       </c>
       <c r="O7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q7">
         <v>213.509141210375</v>
@@ -883,10 +883,10 @@
         <v>1921.582270893375</v>
       </c>
       <c r="S7">
-        <v>0.1817490671647709</v>
+        <v>0.1166486604747442</v>
       </c>
       <c r="T7">
-        <v>0.181749067164771</v>
+        <v>0.1166486604747442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>20.610225</v>
       </c>
       <c r="I8">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J8">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N8">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q8">
-        <v>60.60909551412501</v>
+        <v>124.36130530135</v>
       </c>
       <c r="R8">
-        <v>545.481859627125</v>
+        <v>1119.25174771215</v>
       </c>
       <c r="S8">
-        <v>0.05159332527378197</v>
+        <v>0.06794359996043235</v>
       </c>
       <c r="T8">
-        <v>0.05159332527378197</v>
+        <v>0.06794359996043238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>20.610225</v>
       </c>
       <c r="I9">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="J9">
-        <v>0.8343209329201149</v>
+        <v>0.6160274054778138</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N9">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O9">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P9">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q9">
-        <v>629.08549921065</v>
+        <v>687.5799879297999</v>
       </c>
       <c r="R9">
-        <v>5661.769492895851</v>
+        <v>6188.2198913682</v>
       </c>
       <c r="S9">
-        <v>0.5355072949113806</v>
+        <v>0.3756526962104353</v>
       </c>
       <c r="T9">
-        <v>0.5355072949113807</v>
+        <v>0.3756526962104354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H10">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I10">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J10">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N10">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O10">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P10">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q10">
-        <v>3.098051301706667</v>
+        <v>26.65477888144267</v>
       </c>
       <c r="R10">
-        <v>27.88246171536</v>
+        <v>239.893009932984</v>
       </c>
       <c r="S10">
-        <v>0.002637207619878853</v>
+        <v>0.01456258141522467</v>
       </c>
       <c r="T10">
-        <v>0.002637207619878853</v>
+        <v>0.01456258141522468</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H11">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I11">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J11">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>93.234415</v>
       </c>
       <c r="O11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q11">
-        <v>8.600232502224443</v>
+        <v>55.73875505400722</v>
       </c>
       <c r="R11">
-        <v>77.40209252001999</v>
+        <v>501.648795486065</v>
       </c>
       <c r="S11">
-        <v>0.007320924180662117</v>
+        <v>0.03045233134619473</v>
       </c>
       <c r="T11">
-        <v>0.007320924180662116</v>
+        <v>0.03045233134619474</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H12">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I12">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J12">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N12">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q12">
-        <v>2.441358296024445</v>
+        <v>32.46579652324378</v>
       </c>
       <c r="R12">
-        <v>21.97222466422</v>
+        <v>292.192168709194</v>
       </c>
       <c r="S12">
-        <v>0.002078199511280954</v>
+        <v>0.01773737486935275</v>
       </c>
       <c r="T12">
-        <v>0.002078199511280954</v>
+        <v>0.01773737486935276</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2767293333333333</v>
+        <v>1.793503666666667</v>
       </c>
       <c r="H13">
-        <v>0.8301879999999999</v>
+        <v>5.380511</v>
       </c>
       <c r="I13">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="J13">
-        <v>0.03360677657129334</v>
+        <v>0.1608202836929164</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N13">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O13">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P13">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q13">
-        <v>25.33981227369867</v>
+        <v>179.4998205228791</v>
       </c>
       <c r="R13">
-        <v>228.058310463288</v>
+        <v>1615.498384705912</v>
       </c>
       <c r="S13">
-        <v>0.02157044525947142</v>
+        <v>0.09806799606214418</v>
       </c>
       <c r="T13">
-        <v>0.02157044525947142</v>
+        <v>0.09806799606214421</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H14">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I14">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J14">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N14">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O14">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P14">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q14">
-        <v>8.237136661786668</v>
+        <v>5.534616596541333</v>
       </c>
       <c r="R14">
-        <v>74.13422995608001</v>
+        <v>49.811549368872</v>
       </c>
       <c r="S14">
-        <v>0.007011839848643044</v>
+        <v>0.003023784408329879</v>
       </c>
       <c r="T14">
-        <v>0.007011839848643046</v>
+        <v>0.003023784408329879</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H15">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I15">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J15">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>93.234415</v>
       </c>
       <c r="O15">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P15">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q15">
-        <v>22.86640327903445</v>
+        <v>11.57363338726611</v>
       </c>
       <c r="R15">
-        <v>205.79762951131</v>
+        <v>104.162700485395</v>
       </c>
       <c r="S15">
-        <v>0.01946496267943408</v>
+        <v>0.00632314299892264</v>
       </c>
       <c r="T15">
-        <v>0.01946496267943408</v>
+        <v>0.006323142998922642</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H16">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I16">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J16">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N16">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O16">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P16">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q16">
-        <v>6.491113272934447</v>
+        <v>6.741220291366889</v>
       </c>
       <c r="R16">
-        <v>58.42001945641001</v>
+        <v>60.67098262230201</v>
       </c>
       <c r="S16">
-        <v>0.00552554225795074</v>
+        <v>0.003683000701961988</v>
       </c>
       <c r="T16">
-        <v>0.00552554225795074</v>
+        <v>0.003683000701961989</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7357713333333334</v>
+        <v>0.3724043333333333</v>
       </c>
       <c r="H17">
-        <v>2.207314</v>
+        <v>1.117213</v>
       </c>
       <c r="I17">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="J17">
-        <v>0.08935410825100797</v>
+        <v>0.03339283417605023</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N17">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O17">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P17">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q17">
-        <v>67.37380254726268</v>
+        <v>37.27146603469955</v>
       </c>
       <c r="R17">
-        <v>606.3642229253642</v>
+        <v>335.443194312296</v>
       </c>
       <c r="S17">
-        <v>0.0573517634649801</v>
+        <v>0.02036290606683571</v>
       </c>
       <c r="T17">
-        <v>0.0573517634649801</v>
+        <v>0.02036290606683572</v>
       </c>
     </row>
   </sheetData>
